--- a/mereni_MD/3.sval2.xlsx
+++ b/mereni_MD/3.sval2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1990FC4F-BAD4-4482-9D4F-04ADE7B71DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407610CF-5E19-4DD3-BC23-C6FE9A5AF8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,47 +113,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota v mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -163,7 +143,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -181,8 +173,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.21428827646544182"/>
-                  <c:y val="-2.7788349372995041E-2"/>
+                  <c:x val="-7.0389763779527562E-2"/>
+                  <c:y val="-2.8339165937591136E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -215,7 +207,7 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$A$2:$A$29</c:f>
               <c:numCache>
@@ -307,8 +299,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$B$2:$B$29</c:f>
               <c:numCache>
@@ -400,19 +392,30 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3CB3-4490-BE9D-6EF6D7F6AD56}"/>
+              <c16:uniqueId val="{00000000-A3B1-4F08-9A5A-5567ABBFD953}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota fyzického senzoru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -421,7 +424,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -439,8 +454,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11230205599300087"/>
-                  <c:y val="-7.7539005540974051E-2"/>
+                  <c:x val="-6.4070209973753275E-2"/>
+                  <c:y val="-6.7336687080781568E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -473,7 +488,7 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet!$A$2:$A$29</c:f>
               <c:numCache>
@@ -565,8 +580,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet!$C$2:$C$29</c:f>
               <c:numCache>
@@ -658,11 +673,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3CB3-4490-BE9D-6EF6D7F6AD56}"/>
+              <c16:uniqueId val="{00000002-A3B1-4F08-9A5A-5567ABBFD953}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -674,17 +689,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="779929024"/>
-        <c:axId val="935485744"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="779929024"/>
+        <c:axId val="42282688"/>
+        <c:axId val="42182400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42282688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -694,8 +722,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -722,15 +750,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="935485744"/>
+        <c:crossAx val="42182400"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="935485744"/>
+        <c:axId val="42182400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,8 +781,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -781,9 +812,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="779929024"/>
+        <c:crossAx val="42282688"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -793,37 +824,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -902,7 +902,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -929,8 +929,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1010,11 +1010,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1025,11 +1020,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1041,7 +1031,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1061,9 +1051,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1076,10 +1063,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1119,22 +1106,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1239,8 +1227,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1372,19 +1360,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1398,6 +1387,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1434,10 +1434,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF914C3-3334-885F-C09E-8ADC6BEE5422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF79B97-371D-769D-6CE9-4B2A8817FC42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1746,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C29"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,13 +1769,13 @@
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>600.25817871093705</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>10</v>
       </c>
     </row>
@@ -1783,13 +1783,13 @@
       <c r="A3">
         <v>20</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>604.845458984375</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>10</v>
       </c>
     </row>
@@ -1797,13 +1797,13 @@
       <c r="A4">
         <v>30</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>625.22906494140602</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>10</v>
       </c>
     </row>
@@ -1811,13 +1811,13 @@
       <c r="A5">
         <v>40</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>641.99743652343705</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>10</v>
       </c>
     </row>
@@ -1825,13 +1825,13 @@
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>658.69061279296795</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>10</v>
       </c>
     </row>
@@ -1839,13 +1839,13 @@
       <c r="A7">
         <v>60</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>684.23913574218705</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>10</v>
       </c>
     </row>
@@ -1853,13 +1853,13 @@
       <c r="A8">
         <v>70</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>706.25006103515602</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>10</v>
       </c>
     </row>
@@ -1867,13 +1867,13 @@
       <c r="A9">
         <v>80</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>729.88104248046795</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>10</v>
       </c>
     </row>
@@ -1881,13 +1881,13 @@
       <c r="A10">
         <v>90</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>753.576171875</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>26</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>10</v>
       </c>
     </row>
@@ -1895,13 +1895,13 @@
       <c r="A11">
         <v>100</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>781.93719482421795</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>30</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>10</v>
       </c>
     </row>
@@ -1909,13 +1909,13 @@
       <c r="A12">
         <v>110</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>804.23040771484295</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>34</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>10</v>
       </c>
     </row>
@@ -1923,13 +1923,13 @@
       <c r="A13">
         <v>120</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>825.43859863281205</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>38</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>10</v>
       </c>
     </row>
@@ -1937,13 +1937,13 @@
       <c r="A14">
         <v>130</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>845.40478515625</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>41</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>10</v>
       </c>
     </row>
@@ -1951,13 +1951,13 @@
       <c r="A15">
         <v>140</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>874.29943847656205</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>45</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>10</v>
       </c>
     </row>
@@ -1965,13 +1965,13 @@
       <c r="A16">
         <v>150</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>894.92346191406205</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>49</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>10</v>
       </c>
     </row>
@@ -1979,13 +1979,13 @@
       <c r="A17">
         <v>160</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>920.81927490234295</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>52</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>10</v>
       </c>
     </row>
@@ -1993,13 +1993,13 @@
       <c r="A18">
         <v>170</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>936.92346191406205</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>56</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>10</v>
       </c>
     </row>
@@ -2007,13 +2007,13 @@
       <c r="A19">
         <v>180</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>960.01403808593705</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>60</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>10</v>
       </c>
     </row>
@@ -2021,13 +2021,13 @@
       <c r="A20">
         <v>190</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>980.928955078125</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>64</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>10</v>
       </c>
     </row>
@@ -2035,13 +2035,13 @@
       <c r="A21">
         <v>200</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>1006.76794433593</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>67</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>10</v>
       </c>
     </row>
@@ -2049,13 +2049,13 @@
       <c r="A22">
         <v>210</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>1033.46313476562</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>71</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>10</v>
       </c>
     </row>
@@ -2063,13 +2063,13 @@
       <c r="A23">
         <v>220</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>1051.39086914062</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>74</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>10</v>
       </c>
     </row>
@@ -2077,13 +2077,13 @@
       <c r="A24">
         <v>230</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>1073.63684082031</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>79</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>10</v>
       </c>
     </row>
@@ -2091,13 +2091,13 @@
       <c r="A25">
         <v>240</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>1102.83483886718</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>82</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>10</v>
       </c>
     </row>
@@ -2105,13 +2105,13 @@
       <c r="A26">
         <v>250</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>1127.06127929687</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>86</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>10</v>
       </c>
     </row>
@@ -2119,13 +2119,13 @@
       <c r="A27">
         <v>260</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1153.07678222656</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>90</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>10</v>
       </c>
     </row>
@@ -2133,13 +2133,13 @@
       <c r="A28">
         <v>270</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>1172.39562988281</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>95</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>10</v>
       </c>
     </row>
@@ -2147,13 +2147,13 @@
       <c r="A29">
         <v>280</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>1195.57482910156</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>99</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>10</v>
       </c>
     </row>

--- a/mereni_MD/3.sval2.xlsx
+++ b/mereni_MD/3.sval2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407610CF-5E19-4DD3-BC23-C6FE9A5AF8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B068B2-EFE8-4D53-A68F-307E94ACD67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -861,7 +861,558 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hodnota fyzického senzoru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0908792650918635E-2"/>
+                  <c:y val="5.5774278215223095E-5"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>600.25817871093705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>604.845458984375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>625.22906494140602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>641.99743652343705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>658.69061279296795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>684.23913574218705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>706.25006103515602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>729.88104248046795</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>753.576171875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>781.93719482421795</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>804.23040771484295</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>825.43859863281205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>845.40478515625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>874.29943847656205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>894.92346191406205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>920.81927490234295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>936.92346191406205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>960.01403808593705</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>980.928955078125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1006.76794433593</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1033.46313476562</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1051.39086914062</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1073.63684082031</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1102.83483886718</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1127.06127929687</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1153.07678222656</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1172.39562988281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1195.57482910156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8755-4A3E-9202-83DD572A5648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92466687"/>
+        <c:axId val="1980016175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92466687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1980016175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1980016175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92466687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1417,20 +1968,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1450,6 +2517,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7815F57C-0AAB-DA97-1592-94F258076B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1746,7 +2849,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
